--- a/test/龙泉编码_模板.xlsx
+++ b/test/龙泉编码_模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>总卷数</t>
   </si>
@@ -53,37 +53,50 @@
   </si>
   <si>
     <t>龙泉编码</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>作译者</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>操作</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>龙泉经名</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>佛說七佛經2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ0004</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -249,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +407,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -510,270 +529,291 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="117">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="18"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="20"/>
@@ -847,6 +887,8 @@
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
@@ -863,6 +905,8 @@
     <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="好 2" xfId="67"/>
     <cellStyle name="汇总 2" xfId="68"/>
     <cellStyle name="计算 2" xfId="3"/>
@@ -1185,91 +1229,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>22</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
+      <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1288,7 +1350,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
